--- a/test/test_singlezone/steady_11/正解値11.xlsx
+++ b/test/test_singlezone/steady_11/正解値11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://satohercom-my.sharepoint.com/personal/satoh_satoh-er_com/Documents/users/sourcetree/heat_load_calc/test/test_singlezone/steady_11/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{9C8A7375-789F-4202-ABB9-88B3F8835A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AAB558B2-B8BB-41D6-B57B-99A7DB2E5FE8}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{9C8A7375-789F-4202-ABB9-88B3F8835A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB24B8EB-F4C6-4F82-A0DF-0FC41D3B7EF9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14040" windowHeight="15585" activeTab="1" xr2:uid="{45A1B7A6-7409-41F9-BB10-4729754C71E5}"/>
   </bookViews>
   <sheets>
     <sheet name="熱伝達率" sheetId="2" r:id="rId1"/>
@@ -1440,8 +1440,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AH55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF30" sqref="AF30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1777,22 +1777,22 @@
         <v>1.5707963267948966</v>
       </c>
       <c r="K23" s="1">
-        <f>MAX(SIN($D$30)*COS(I23)+COS($D$30)*SIN(I23)*COS($D$29-J23),0)</f>
+        <f t="shared" ref="K23:K28" si="0">MAX(SIN($D$30)*COS(I23)+COS($D$30)*SIN(I23)*COS($D$29-J23),0)</f>
         <v>0</v>
       </c>
       <c r="L23" s="1">
-        <f>(1+COS(I23))/2</f>
+        <f t="shared" ref="L23:L28" si="1">(1+COS(I23))/2</f>
         <v>0.5</v>
       </c>
       <c r="M23" s="1">
-        <f>1-L23</f>
+        <f t="shared" ref="M23:M28" si="2">1-L23</f>
         <v>0.5</v>
       </c>
       <c r="N23" s="1">
         <v>0.8</v>
       </c>
       <c r="O23" s="1">
-        <f>$D$26*K23+$D$27*L23+$D$33*M23</f>
+        <f t="shared" ref="O23:O28" si="3">$D$26*K23+$D$27*L23+$D$33*M23</f>
         <v>127.5</v>
       </c>
       <c r="P23" s="1" t="s">
@@ -1816,7 +1816,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="V23" s="1">
-        <f>1/$W23-$U23</f>
+        <f t="shared" ref="V23:V28" si="4">1/$W23-$U23</f>
         <v>3.0411743961133624</v>
       </c>
       <c r="W23" s="1">
@@ -1830,29 +1830,29 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Z23" s="1">
-        <f>1/(1/$V23+$Y23+$X23)</f>
+        <f t="shared" ref="Z23:Z28" si="5">1/(1/$V23+$Y23+$X23)</f>
         <v>2.2531639699224377</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="5">
-        <f ca="1">$R23+($AC23-$R23)*SUM($X23,$Y23)/SUM($X23,$Y23,$W23)</f>
-        <v>13.810091154041899</v>
+        <f t="shared" ref="AB23:AB28" ca="1" si="6">$R23+($AC23-$R23)*SUM($X23,$Y23)/SUM($X23,$Y23,$W23)</f>
+        <v>14.264167459734583</v>
       </c>
       <c r="AC23" s="1">
-        <f ca="1">($D$50*$V23+$D$51*$U23)/SUM($V23,$U23)+$AA23/SUM($V23,$U23)</f>
-        <v>23.117134866603685</v>
+        <f t="shared" ref="AC23:AC28" ca="1" si="7">($D$50*$V23+$D$51*$U23)/SUM($V23,$U23)+$AA23/SUM($V23,$U23)</f>
+        <v>24.005545029915471</v>
       </c>
       <c r="AD23" s="1">
-        <f ca="1">($D$50-$AB23)*$V23</f>
-        <v>67.599649196234267</v>
+        <f t="shared" ref="AD23:AD28" ca="1" si="8">($D$50-$AB23)*$V23</f>
+        <v>64.99130831025893</v>
       </c>
       <c r="AE23" s="1">
-        <f ca="1">($D$51-$AB23)*$U23</f>
-        <v>17.009839099782003</v>
+        <f t="shared" ref="AE23:AE28" ca="1" si="9">($D$51-$AB23)*$U23</f>
+        <v>23.566669600476423</v>
       </c>
       <c r="AF23" s="4">
-        <f ca="1">SUM($AD23,$AE23)+AA23</f>
-        <v>84.609488296016266</v>
+        <f t="shared" ref="AF23:AF28" ca="1" si="10">SUM($AD23,$AE23)+AA23</f>
+        <v>88.55797791073536</v>
       </c>
       <c r="AG23" s="1">
         <f>(1-$AG$27)*S23/SUM($S$23:$S$26,$S$28)</f>
@@ -1860,7 +1860,7 @@
       </c>
       <c r="AH23" s="15">
         <f ca="1">SUMPRODUCT(AB23:AB28,AG23:AG28)</f>
-        <v>22.052668623114364</v>
+        <v>22.544868132141037</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.4">
@@ -1889,35 +1889,35 @@
         <v>-1.5707963267948966</v>
       </c>
       <c r="K24" s="1">
-        <f>MAX(SIN($D$30)*COS(I24)+COS($D$30)*SIN(I24)*COS($D$29-J24),0)</f>
+        <f t="shared" si="0"/>
         <v>0.22414386804201342</v>
       </c>
       <c r="L24" s="1">
-        <f>(1+COS(I24))/2</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="M24" s="1">
-        <f>1-L24</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="N24" s="1">
         <v>0.8</v>
       </c>
       <c r="O24" s="1">
-        <f>$D$26*K24+$D$27*L24+$D$33*M24</f>
+        <f t="shared" si="3"/>
         <v>284.4007076294094</v>
       </c>
       <c r="P24" s="1">
         <f>$D$26*K24*$D$43+($D$27*L24+$D$33*M24)*$D$44</f>
-        <v>3.0775265356665535</v>
+        <v>20.880097359031907</v>
       </c>
       <c r="Q24" s="1">
         <f>$D$26*K24*$D$40+($D$27*L24+$D$33*M24)*$D$41</f>
-        <v>134.92106764495503</v>
+        <v>121.8867638004433</v>
       </c>
       <c r="R24" s="1">
         <f>$D$25+P24/4.65</f>
-        <v>0.66183366358420503</v>
+        <v>4.490343518071378</v>
       </c>
       <c r="S24" s="1">
         <v>1</v>
@@ -1930,7 +1930,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="V24" s="1">
-        <f>1/$W24-$U24</f>
+        <f t="shared" si="4"/>
         <v>3.0411743961133624</v>
       </c>
       <c r="W24" s="1">
@@ -1944,29 +1944,29 @@
         <v>6.5053763440860196E-2</v>
       </c>
       <c r="Z24" s="1">
-        <f>1/(1/$V24+$Y24+$X24)</f>
+        <f t="shared" si="5"/>
         <v>2.304816054376122</v>
       </c>
       <c r="AA24" s="1"/>
       <c r="AB24" s="5">
-        <f ca="1">$R24+($AC24-$R24)*SUM($X24,$Y24)/SUM($X24,$Y24,$W24)</f>
-        <v>11.631248301259237</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>14.023519456607229</v>
       </c>
       <c r="AC24" s="1">
-        <f ca="1">($D$50*$V24+$D$51*$U24)/SUM($V24,$U24)+$AA24/SUM($V24,$U24)</f>
-        <v>23.117134866603685</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>24.005545029915471</v>
       </c>
       <c r="AD24" s="1">
-        <f ca="1">($D$50-$AB24)*$V24</f>
-        <v>74.225890293271505</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>65.723160855845649</v>
       </c>
       <c r="AE24" s="1">
-        <f ca="1">($D$51-$AB24)*$U24</f>
-        <v>30.191260300768977</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>25.022526174229291</v>
       </c>
       <c r="AF24" s="4">
-        <f ca="1">SUM($AD24,$AE24)+AA24</f>
-        <v>104.41715059404048</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>90.745687030074947</v>
       </c>
       <c r="AG24" s="1">
         <f>(1-$AG$27)*S24/SUM($S$23:$S$26,$S$28)</f>
@@ -2002,35 +2002,35 @@
         <v>0</v>
       </c>
       <c r="K25" s="1">
-        <f>MAX(SIN($D$30)*COS(I25)+COS($D$30)*SIN(I25)*COS($D$29-J25),0)</f>
+        <f t="shared" si="0"/>
         <v>0.83651630373780794</v>
       </c>
       <c r="L25" s="1">
-        <f>(1+COS(I25))/2</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="M25" s="1">
-        <f>1-L25</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="N25" s="1">
         <v>0.8</v>
       </c>
       <c r="O25" s="1">
-        <f>$D$26*K25+$D$27*L25+$D$33*M25</f>
+        <f t="shared" si="3"/>
         <v>713.06141261646553</v>
       </c>
       <c r="P25" s="1">
         <f>$D$26*K25*$D$42+($D$27*L25+$D$33*M25)*$D$44</f>
-        <v>-34.804505754766964</v>
+        <v>24.982595617897605</v>
       </c>
       <c r="Q25" s="1">
         <f>$D$26*K25*$D$39+($D$27*L25+$D$33*M25)*$D$41</f>
-        <v>573.6654882319898</v>
+        <v>515.84663134632706</v>
       </c>
       <c r="R25" s="1">
         <f>$D$25+P25/4.65</f>
-        <v>-7.4848399472617118</v>
+        <v>5.3726012081500221</v>
       </c>
       <c r="S25" s="1">
         <v>1</v>
@@ -2043,7 +2043,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="V25" s="1">
-        <f>1/$W25-$U25</f>
+        <f t="shared" si="4"/>
         <v>3.0411743961133624</v>
       </c>
       <c r="W25" s="1">
@@ -2057,29 +2057,29 @@
         <v>6.5053763440860196E-2</v>
       </c>
       <c r="Z25" s="1">
-        <f>1/(1/$V25+$Y25+$X25)</f>
+        <f t="shared" si="5"/>
         <v>2.304816054376122</v>
       </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="5">
-        <f ca="1">$R25+($AC25-$R25)*SUM($X25,$Y25)/SUM($X25,$Y25,$W25)</f>
-        <v>7.4642247493115494</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>14.474794265082455</v>
       </c>
       <c r="AC25" s="1">
-        <f ca="1">($D$50*$V25+$D$51*$U25)/SUM($V25,$U25)+$AA25/SUM($V25,$U25)</f>
-        <v>23.117134866603685</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>24.005545029915471</v>
       </c>
       <c r="AD25" s="1">
-        <f ca="1">($D$50-$AB25)*$V25</f>
-        <v>86.89853562745617</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>64.350755462699837</v>
       </c>
       <c r="AE25" s="1">
-        <f ca="1">($D$51-$AB25)*$U25</f>
-        <v>55.400647257017837</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>22.292433308509416</v>
       </c>
       <c r="AF25" s="4">
-        <f ca="1">SUM($AD25,$AE25)+AA25</f>
-        <v>142.29918288447402</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>86.643188771209253</v>
       </c>
       <c r="AG25" s="1">
         <f>(1-$AG$27)*S25/SUM($S$23:$S$26,$S$28)</f>
@@ -2111,22 +2111,22 @@
         <v>3.1415926535897931</v>
       </c>
       <c r="K26" s="1">
-        <f>MAX(SIN($D$30)*COS(I26)+COS($D$30)*SIN(I26)*COS($D$29-J26),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L26" s="1">
-        <f>(1+COS(I26))/2</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="M26" s="1">
-        <f>1-L26</f>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="N26" s="1">
         <v>0.8</v>
       </c>
       <c r="O26" s="1">
-        <f>$D$26*K26+$D$27*L26+$D$33*M26</f>
+        <f t="shared" si="3"/>
         <v>127.5</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -2150,7 +2150,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="V26" s="1">
-        <f>1/$W26-$U26</f>
+        <f t="shared" si="4"/>
         <v>3.0411743961133624</v>
       </c>
       <c r="W26" s="1">
@@ -2164,29 +2164,29 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Z26" s="1">
-        <f>1/(1/$V26+$Y26+$X26)</f>
+        <f t="shared" si="5"/>
         <v>2.2531639699224377</v>
       </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="5">
-        <f ca="1">$R26+($AC26-$R26)*SUM($X26,$Y26)/SUM($X26,$Y26,$W26)</f>
-        <v>13.810091154041899</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>14.264167459734583</v>
       </c>
       <c r="AC26" s="1">
-        <f ca="1">($D$50*$V26+$D$51*$U26)/SUM($V26,$U26)+$AA26/SUM($V26,$U26)</f>
-        <v>23.117134866603685</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>24.005545029915471</v>
       </c>
       <c r="AD26" s="1">
-        <f ca="1">($D$50-$AB26)*$V26</f>
-        <v>67.599649196234267</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>64.99130831025893</v>
       </c>
       <c r="AE26" s="1">
-        <f ca="1">($D$51-$AB26)*$U26</f>
-        <v>17.009839099782003</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>23.566669600476423</v>
       </c>
       <c r="AF26" s="4">
-        <f ca="1">SUM($AD26,$AE26)+AA26</f>
-        <v>84.609488296016266</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>88.55797791073536</v>
       </c>
       <c r="AG26" s="1">
         <f>(1-$AG$27)*S26/SUM($S$23:$S$26,$S$28)</f>
@@ -2218,22 +2218,22 @@
         <v>0</v>
       </c>
       <c r="K27" s="1">
-        <f>MAX(SIN($D$30)*COS(I27)+COS($D$30)*SIN(I27)*COS($D$29-J27),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L27" s="1">
-        <f>(1+COS(I27))/2</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M27" s="1">
-        <f>1-L27</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="N27" s="1">
         <v>0.8</v>
       </c>
       <c r="O27" s="1">
-        <f>$D$26*K27+$D$27*L27+$D$33*M27</f>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="P27" s="1" t="s">
@@ -2257,7 +2257,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="V27" s="1">
-        <f>1/$W27-$U27</f>
+        <f t="shared" si="4"/>
         <v>3.0411743961133624</v>
       </c>
       <c r="W27" s="1">
@@ -2271,32 +2271,32 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Z27" s="1">
-        <f>1/(1/$V27+$Y27+$X27)</f>
+        <f t="shared" si="5"/>
         <v>2.2531639699224377</v>
       </c>
       <c r="AA27" s="1">
         <f>($D$37*$D$38)/$S27</f>
-        <v>354.29327793847244</v>
+        <v>318.86669757338518</v>
       </c>
       <c r="AB27" s="5">
-        <f ca="1">$R27+($AC27-$R27)*SUM($X27,$Y27)/SUM($X27,$Y27,$W27)</f>
-        <v>32.595024335916015</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>31.057339567749352</v>
       </c>
       <c r="AC27" s="1">
-        <f ca="1">($D$50*$V27+$D$51*$U27)/SUM($V27,$U27)+$AA27/SUM($V27,$U27)</f>
-        <v>62.089395439835648</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>59.080881762987843</v>
       </c>
       <c r="AD27" s="1">
-        <f ca="1">($D$50-$AB27)*$V27</f>
-        <v>10.471391370818395</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>13.920343265839355</v>
       </c>
       <c r="AE27" s="1">
-        <f ca="1">($D$51-$AB27)*$U27</f>
-        <v>-96.634022910021372</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-78.027566337056456</v>
       </c>
       <c r="AF27" s="4">
-        <f ca="1">SUM($AD27,$AE27)+AA27</f>
-        <v>268.13064639926949</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>254.75947450216808</v>
       </c>
       <c r="AG27" s="1">
         <v>0.45</v>
@@ -2327,22 +2327,22 @@
         <v>0</v>
       </c>
       <c r="K28" s="1">
-        <f>MAX(SIN($D$30)*COS(I28)+COS($D$30)*SIN(I28)*COS($D$29-J28),0)</f>
+        <f t="shared" si="0"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="L28" s="1">
-        <f>(1+COS(I28))/2</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M28" s="1">
-        <f>1-L28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N28" s="1">
         <v>0.8</v>
       </c>
       <c r="O28" s="1">
-        <f>$D$26*K28+$D$27*L28+$D$33*M28</f>
+        <f t="shared" si="3"/>
         <v>550</v>
       </c>
       <c r="P28" s="1" t="s">
@@ -2366,7 +2366,7 @@
         <v>6.0497346947957293</v>
       </c>
       <c r="V28" s="1">
-        <f>1/$W28-$U28</f>
+        <f t="shared" si="4"/>
         <v>3.0411743961133624</v>
       </c>
       <c r="W28" s="1">
@@ -2380,29 +2380,29 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="Z28" s="1">
-        <f>1/(1/$V28+$Y28+$X28)</f>
+        <f t="shared" si="5"/>
         <v>2.2531639699224377</v>
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="5">
-        <f ca="1">$R28+($AC28-$R28)*SUM($X28,$Y28)/SUM($X28,$Y28,$W28)</f>
-        <v>20.419868931819678</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>20.873945237512363</v>
       </c>
       <c r="AC28" s="1">
-        <f ca="1">($D$50*$V28+$D$51*$U28)/SUM($V28,$U28)+$AA28/SUM($V28,$U28)</f>
-        <v>23.117134866603685</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>24.005545029915471</v>
       </c>
       <c r="AD28" s="1">
-        <f ca="1">($D$50-$AB28)*$V28</f>
-        <v>47.498162254457412</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>44.889821368482067</v>
       </c>
       <c r="AE28" s="1">
-        <f ca="1">($D$51-$AB28)*$U28</f>
-        <v>-22.977562847330045</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-16.420732346635628</v>
       </c>
       <c r="AF28" s="4">
-        <f ca="1">SUM($AD28,$AE28)+AA28</f>
-        <v>24.520599407127367</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>28.46908902184644</v>
       </c>
       <c r="AG28" s="1">
         <f>(1-$AG$27)*S28/SUM($S$23:$S$26,$S$28)</f>
@@ -2441,11 +2441,11 @@
       <c r="F30" s="1"/>
       <c r="AC30" s="23" t="str">
         <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AC23:AC28)</f>
-        <v>23.1171348666037, 23.1171348666037, 23.1171348666037, 23.1171348666037, 62.0893954398356, 23.1171348666037</v>
+        <v>24.0055450299155, 24.0055450299155, 24.0055450299155, 24.0055450299155, 59.0808817629878, 24.0055450299155</v>
       </c>
       <c r="AF30" s="23" t="str">
         <f ca="1">_xlfn.TEXTJOIN(", ",TRUE,AF23:AF28)</f>
-        <v>84.6094882960163, 104.41715059404, 142.299182884474, 84.6094882960163, 268.130646399269, 24.5205994071274</v>
+        <v>88.5579779107354, 90.7456870300749, 86.6431887712093, 88.5579779107354, 254.759474502168, 28.4690890218464</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.4">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="D37" s="1">
         <f>SUMPRODUCT(Q23:Q28,S23:S28)</f>
-        <v>708.58655587694489</v>
+        <v>637.73339514677036</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>99</v>
@@ -2579,7 +2579,7 @@
         <v>102</v>
       </c>
       <c r="D39" s="1">
-        <v>0.82473876410859903</v>
+        <v>0.74145558992247895</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>70</v>
@@ -2593,7 +2593,7 @@
         <v>103</v>
       </c>
       <c r="D40" s="1">
-        <v>0.281648029710169</v>
+        <v>0.256263440037929</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>70</v>
@@ -2607,7 +2607,7 @@
         <v>104</v>
       </c>
       <c r="D41" s="1">
-        <v>0.71161013710588705</v>
+        <v>0.64061842132506297</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>70</v>
@@ -2621,7 +2621,7 @@
         <v>105</v>
       </c>
       <c r="D42" s="22">
-        <v>-5.2435981209318999E-2</v>
+        <v>3.2665154409436598E-2</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>70</v>
@@ -2637,7 +2637,7 @@
         <v>107</v>
       </c>
       <c r="D43" s="22">
-        <v>4.5745778779578201E-2</v>
+        <v>9.5760917381883706E-2</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="s">
@@ -2651,7 +2651,7 @@
         <v>108</v>
       </c>
       <c r="D44" s="22">
-        <v>-3.2157008046334798E-2</v>
+        <v>4.5922679675081901E-2</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>70</v>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="D47" s="1">
         <f ca="1">SUM($AD$23:$AD$28)</f>
-        <v>354.29327793847199</v>
+        <v>318.86669757338473</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>99</v>
@@ -2718,7 +2718,7 @@
       </c>
       <c r="D49" s="1">
         <f ca="1">SUM($D$47:$D$48)</f>
-        <v>354.29327793847199</v>
+        <v>318.86669757338473</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>99</v>
@@ -2735,7 +2735,7 @@
       </c>
       <c r="D50" s="5">
         <f ca="1">$D$50+($D$36-$D$49-D55)/$D$35</f>
-        <v>36.038230810428296</v>
+        <v>35.634631578240345</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>0</v>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="D51" s="1">
         <f ca="1">SUMPRODUCT($U$23:$U$28,$S$23:$S$28,$AB$23:$AB$28)/SUMPRODUCT($U$23:$U$28,$S$23:$S$28)</f>
-        <v>16.621758104398378</v>
+        <v>18.159655574403423</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>0</v>
@@ -2795,7 +2795,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1">
         <f ca="1">D50+D37*(1-D38)/D52</f>
-        <v>163.84965863816007</v>
+        <v>150.66590775911524</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>0</v>
@@ -2810,7 +2810,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1">
         <f ca="1">D52*(D50-D54)</f>
-        <v>-354.29327793847244</v>
+        <v>-318.86669757338518</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>99</v>
